--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_125.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_125.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,650 +488,652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2589285714285714</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2373626373626374</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['F:maj', 'C:7/A#', 'F:maj/A'], ['F:maj', 'A#:maj/F', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(47.02, 51.38)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(85.58, 94.24)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:01:14.900000', '0:01:26.120000'), ('0:00:17.340000', '0:00:24.400000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:56.720000', '0:00:58.880000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06971153846153846</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
-        </is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(20.045192, 25.141972)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(23.04, 30.4)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:11.384000', '0:00:18.837000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:59.220000', '0:01:11.120000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1480769230769231</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'A'], ['A', 'D', 'A']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(65.64, 70.54), (18.32, 25.82)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(43.926916, 50.765192), (28.450816, 36.229501)]</t>
+          <t>[('0:00:02.360000', '0:00:11.660000'), ('0:01:00.040000', '0:01:07.080000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:56.720000', '0:00:58.880000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_151</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3428571428571429</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'A/b7', 'C', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'F', 'Ab', 'Bb', 'F']]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(26.08399, 39.029115)]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(24.607913, 32.700068)]</t>
+          <t>[('0:01:34.780000', '0:01:54.140000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+          <t>[('0:00:27.160000', '0:00:38.460000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2256944444444444</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D', 'A']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(122.78, 141.245)]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(1.302038, 8.110136)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:03.100000', '0:01:06.700000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:21.340000', '0:00:24.960000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_126</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_80</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1859649122807017</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F#', 'C#', 'B', 'F#']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Gb', 'Db']]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.459543, 4.905782)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(53.715827, 69.482176)]</t>
+          <t>[('0:00:18.660000', '0:00:21.840000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3oEo8Pqm5IAi8wQfCI5BpR</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:03:46.020000', '0:04:01.060000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1201923076923077</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'A:min'], ['A/3', 'E/5', 'A/3']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.125</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Bb:min'], ['Db', 'Ab', 'Db']]</t>
+          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:min', 'A#:7', 'D#:min'], ['D#:maj', 'A#:7', 'D#:maj'], ['D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(88.497, 92.37), (14.168, 18.573)]</t>
+          <t>[['G:7', 'C:min', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G', 'C:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(35.765102, 41.75585), (62.09653, 72.37136)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:36.180000', '0:00:37.980000'), ('0:00:09.100000', '0:00:13.860000'), ('0:00:43.540000', '0:01:00'), ('0:00:00.780000', '0:00:05.980000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:23.860000', '0:00:29.360000'), ('0:00:23.300000', '0:00:26.860000'), ('0:04:22.920000', '0:04:26.900000'), ('0:00:12.280000', '0:00:17.300000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2392857142857143</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>isophonics_294</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>jaah_41</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0561314791403287</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>[['G/3', 'G', 'G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(251.5, 255.38)]</t>
+          <t>[['F', 'F', 'F']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(66.92, 68.18)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:01.366439', '0:00:05.255782')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:13.330000', '0:02:16.910000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2196969696969697</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>isophonics_168</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_152</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.09935897435897437</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj/B', 'C:min']]</t>
+          <t>[['A:min7', 'D', 'G'], ['G', 'G', 'D'], ['D', 'G', 'E:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(10.38, 16.32)]</t>
+          <t>[['D:min7', 'G', 'C'], ['A', 'A/3', 'E/5'], ['G', 'C', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(16.24, 19.08)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:35.276145', '0:00:39.339638'), ('0:00:15.388254', '0:00:19.382087'), ('0:00:36.611293', '0:00:40.651565')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:16.017000', '0:02:20.934000'), ('0:00:12.404000', '0:00:17.043000'), ('0:01:28.497000', '0:01:32.370000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1617873651771957</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'G'], ['G', 'G', 'D:7']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2153846153846154</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj', 'G:maj', 'D:7/F#']]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(15.79, 20.07), (11.55, 15.79)]</t>
+          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(5.88, 11.46), (6.62, 12.78)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:09.620000', '0:00:14.180000'), ('0:00:01.880000', '0:00:06.560000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:58.180000', '0:02:03.040000'), ('0:00:00.860000', '0:00:05.140000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_258</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:min', 'A:min', 'E:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(1.64, 5.02)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.506, 8.175)]</t>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:00.600000', '0:00:40.540000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(18.12, 24.54)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(7.284457, 20.438561)]</t>
+          <t>[('0:01:01.540000', '0:01:07.900000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:01.260000', '0:01:07.540000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06361746361746362</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_46</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(60.761383, 69.294716)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(16.04, 22.4)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:08.440000', '0:02:12.720000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:10.360000', '0:01:59')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(21.78, 28.04)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(67.76, 84.78)]</t>
+          <t>[('0:00:00.780000', '0:00:16.040000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.220000', '0:00:13.100000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_56</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.05499181669394435</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min7/A#', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(71.1, 78.7)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(13.21, 15.93)]</t>
+          <t>[('0:00:14.460000', '0:00:19.040000'), ('0:00:24.660000', '0:00:27.760000'), ('0:00:19.700000', '0:00:21.360000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:12.400000', '0:00:16.560000'), ('0:00:21.880000', '0:00:24.860000'), ('0:00:17.200000', '0:00:18.680000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(81.62, 103.56)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(78.32, 99.6)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
